--- a/Arbeitsstunden_Bauer.xlsx
+++ b/Arbeitsstunden_Bauer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Desktop\da_schrift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAC96C3-C8F0-4CC9-A446-3DED90354B32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B6A76-7DF5-41F0-8669-0E61D135AEA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Administratives (Vivify, Dokumentation, Repository)</t>
+  </si>
+  <si>
+    <t>Verfassen der Diplomarbeit</t>
   </si>
 </sst>
 </file>
@@ -184,8 +187,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,21 +727,31 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="7">
-        <f>SUM(C2:C23)</f>
-        <v>201</v>
+      <c r="C26" s="8">
+        <f>SUM(C2:C24)</f>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
